--- a/3MachineModel_test.xlsx
+++ b/3MachineModel_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DB8F13-DF1B-4CC9-8B60-DD2BDA9ADC46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F279881C-837F-4CFC-9F98-7FFA9A437A78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1918,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2002,10 +2002,10 @@
       </c>
       <c r="C10">
         <f>D10/50</f>
-        <v>1.8E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2026,10 +2026,10 @@
       </c>
       <c r="C11">
         <f>D11/50</f>
-        <v>1.8E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2038,75 +2038,6 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1E-4</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1E-4</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1E-4</v>
-      </c>
-      <c r="G14">
         <v>1</v>
       </c>
     </row>
@@ -2347,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5790389-830F-48CF-A4C1-ECB581CC8829}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2392,6 +2323,75 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1E-4</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1E-4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1E-4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
